--- a/tests/data/desired/resultreport.xlsx
+++ b/tests/data/desired/resultreport.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2Abone6</t>
+  </si>
+  <si>
+    <t>&lt;missing&gt;</t>
   </si>
   <si>
     <t>ACO</t>
@@ -127,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="69">
+  <fonts count="81">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -230,6 +233,78 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color rgb="20D020"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
       <u val="none"/>
     </font>
     <font>
@@ -588,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -658,6 +733,18 @@
     <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="78" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -788,15 +875,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.0" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.2578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.1484375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -804,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s" s="1">
         <v>1</v>
@@ -833,10 +920,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s" s="31">
         <v>4</v>
@@ -862,10 +949,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s" s="37">
         <v>6</v>
@@ -891,10 +978,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s" s="45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="46">
         <v>8</v>
@@ -905,64 +992,100 @@
       <c r="F4" t="n" s="48">
         <v>13.0</v>
       </c>
+      <c r="G4" t="s" s="49">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="50">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="51">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="49">
+      <c r="A5" t="n" s="52">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s" s="50">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s" s="51">
+      <c r="B5" t="s" s="53">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s" s="54">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="55">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="56">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s" s="57">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="58">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s" s="59">
+        <v>21</v>
+      </c>
+      <c r="I5" t="n" s="60">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="62">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s" s="63">
         <v>28</v>
       </c>
-      <c r="G5" t="s" s="52">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s" s="53">
-        <v>21</v>
-      </c>
-      <c r="I5" t="n" s="54">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="55">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="56">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s" s="57">
+      <c r="D6" t="s" s="64">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s" s="65">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n" s="66">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="s" s="67">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s" s="68">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s" s="69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="70">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="71">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="58">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="59">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="60">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="61">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="62">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="63">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s" s="64">
+      <c r="C7" t="s" s="72">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s" s="73">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="74">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s" s="75">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="76">
         <v>22</v>
       </c>
-      <c r="H7" t="s" s="65">
+      <c r="H7" t="s" s="77">
         <v>23</v>
       </c>
-      <c r="I7" t="n" s="66">
+      <c r="I7" t="n" s="78">
         <v>26.0</v>
       </c>
     </row>
@@ -971,10 +1094,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -982,7 +1105,7 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="n" s="67">
+      <c r="F8" t="n" s="79">
         <v>15.0</v>
       </c>
       <c r="G8" t="s">
@@ -991,7 +1114,7 @@
       <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="n" s="68">
+      <c r="I8" t="n" s="80">
         <v>88.0</v>
       </c>
     </row>
@@ -1127,13 +1250,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1218,11 +1341,29 @@
       <c r="E5" t="n" s="2">
         <v>13.0</v>
       </c>
+      <c r="F5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="n" s="2">
         <v>4.0</v>
       </c>
+      <c r="C6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="F6" t="s" s="2">
         <v>20</v>
       </c>
@@ -1246,10 +1387,28 @@
       <c r="E7" t="n" s="2">
         <v>15.0</v>
       </c>
+      <c r="F7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="n" s="2">
         <v>6.0</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>22</v>
@@ -1321,13 +1480,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1412,6 +1571,15 @@
       <c r="E5" t="n">
         <v>13.0</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
@@ -1425,6 +1593,15 @@
       </c>
       <c r="E6" t="n">
         <v>15.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1487,10 +1664,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
@@ -1569,6 +1746,15 @@
       <c r="B5" t="n">
         <v>4.0</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
@@ -1582,6 +1768,15 @@
     <row r="6">
       <c r="B6" t="n">
         <v>6.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1653,7 +1848,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
@@ -1952,13 +2147,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="16.1171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2037,22 +2232,40 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" t="n">
         <v>13.0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
         <v>4.0</v>
       </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" t="s">
         <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
       </c>
       <c r="H6" t="n">
         <v>24.0</v>
@@ -2065,22 +2278,40 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
       <c r="G7" t="n">
         <v>15.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
         <v>6.0</v>
       </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" t="s">
         <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
       </c>
       <c r="H8" t="n">
         <v>26.0</v>
@@ -2146,13 +2377,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2237,11 +2468,29 @@
       <c r="E5" t="n" s="2">
         <v>13.0</v>
       </c>
+      <c r="F5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" t="n" s="2">
         <v>4.0</v>
       </c>
+      <c r="C6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>24</v>
+      </c>
       <c r="F6" t="s" s="2">
         <v>20</v>
       </c>
@@ -2265,10 +2514,28 @@
       <c r="E7" t="n" s="2">
         <v>15.0</v>
       </c>
+      <c r="F7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" t="n" s="2">
         <v>6.0</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>24</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>22</v>
@@ -2317,7 +2584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>

--- a/tests/data/desired/resultreport.xlsx
+++ b/tests/data/desired/resultreport.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>2Abone6</t>
+  </si>
+  <si>
+    <t>FIRST_NAME (Source1)</t>
+  </si>
+  <si>
+    <t>LAST_NAME (Source1)</t>
+  </si>
+  <si>
+    <t>AGE (Source1)</t>
+  </si>
+  <si>
+    <t>FIRST_NAME (Source2)</t>
+  </si>
+  <si>
+    <t>LAST_NAME (Source2)</t>
+  </si>
+  <si>
+    <t>AGE (Source2)</t>
   </si>
   <si>
     <t>&lt;missing&gt;</t>
@@ -878,12 +896,12 @@
     <col min="1" max="1" width="8.0" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.2578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.1484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -891,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>3</v>
-      </c>
       <c r="G1" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -920,10 +938,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="31">
         <v>4</v>
@@ -949,10 +967,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="37">
         <v>6</v>
@@ -978,10 +996,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="44">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s" s="45">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s" s="46">
         <v>8</v>
@@ -993,13 +1011,13 @@
         <v>13.0</v>
       </c>
       <c r="G4" t="s" s="49">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s" s="50">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s" s="51">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1007,19 +1025,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s" s="53">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="54">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s" s="55">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s" s="56">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="57">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="58">
         <v>20</v>
@@ -1036,10 +1054,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s" s="62">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="63">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s" s="64">
         <v>10</v>
@@ -1051,13 +1069,13 @@
         <v>15.0</v>
       </c>
       <c r="G6" t="s" s="67">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s" s="68">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s" s="69">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1065,19 +1083,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s" s="71">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="72">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s" s="73">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s" s="74">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="75">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="76">
         <v>22</v>
@@ -1094,10 +1112,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1251,12 +1269,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1264,22 +1282,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1342,13 +1360,13 @@
         <v>13.0</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1356,13 +1374,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>20</v>
@@ -1388,13 +1406,13 @@
         <v>15.0</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1402,13 +1420,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>22</v>
@@ -1481,12 +1499,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1494,22 +1512,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1572,13 +1590,13 @@
         <v>13.0</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1595,13 +1613,13 @@
         <v>15.0</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1665,12 +1683,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1678,22 +1696,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1747,13 +1765,13 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -1770,13 +1788,13 @@
         <v>6.0</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1849,12 +1867,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1862,22 +1880,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1977,22 +1995,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -2148,12 +2166,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2161,22 +2179,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -2233,19 +2251,19 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>13.0</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -2253,19 +2271,19 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
         <v>24.0</v>
@@ -2279,19 +2297,19 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>15.0</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -2299,19 +2317,19 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H8" t="n">
         <v>26.0</v>
@@ -2378,12 +2396,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="14.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2391,22 +2409,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -2469,13 +2487,13 @@
         <v>13.0</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -2483,13 +2501,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>20</v>
@@ -2515,13 +2533,13 @@
         <v>15.0</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -2529,13 +2547,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>22</v>
@@ -2585,12 +2603,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="8.9140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="16.62890625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.1171875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="8.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -2598,22 +2616,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">

--- a/tests/data/desired/resultreport.xlsx
+++ b/tests/data/desired/resultreport.xlsx
@@ -20,20 +20,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Source1!$A$1:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Source2!$A$1:$D$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">full!$B$2:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">left!$B$2:$H$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">right!$B$2:$H$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">inner!$B$2:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">interlaced!$B$2:$H$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">diffs!$B$2:$H$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">append!$B$2:$H$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">multicols!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">full!$B$2:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">left!$B$2:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">right!$B$2:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">inner!$B$2:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">interlaced!$B$2:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">diffs!$B$2:$I$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">append!$B$2:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="true">multicols!$A$1:$J$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>2Abone6</t>
+  </si>
+  <si>
+    <t># of Diffs</t>
   </si>
   <si>
     <t>FIRST_NAME (Source1)</t>
@@ -148,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="81">
+  <fonts count="82">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -256,13 +259,19 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color rgb="2020D0"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color rgb="2020D0"/>
+      <color rgb="20D020"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="20D020"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="20D020"/>
       <u val="none"/>
     </font>
     <font>
@@ -681,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -763,6 +772,7 @@
     <xf numFmtId="0" fontId="78" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -893,29 +903,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.2578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.1484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>31</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>32</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s" s="1">
         <v>25</v>
@@ -932,212 +943,236 @@
       <c r="I1" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="J1" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="n" s="37">
+        <v>3.0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" t="s" s="31">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="38">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="32">
+      <c r="F2" t="s" s="39">
         <v>5</v>
       </c>
-      <c r="F2" t="n" s="33">
+      <c r="G2" t="n" s="40">
         <v>11.0</v>
       </c>
-      <c r="G2" t="s" s="34">
+      <c r="H2" t="s" s="41">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="35">
+      <c r="I2" t="s" s="42">
         <v>17</v>
       </c>
-      <c r="I2" t="n" s="36">
+      <c r="J2" t="n" s="43">
         <v>21.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="n" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="B3" t="n">
         <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s" s="37">
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s" s="45">
         <v>6</v>
       </c>
-      <c r="E3" t="s" s="38">
+      <c r="F3" t="s" s="46">
         <v>7</v>
       </c>
-      <c r="F3" t="n" s="39">
+      <c r="G3" t="n" s="47">
         <v>12.0</v>
       </c>
-      <c r="G3" t="s" s="40">
+      <c r="H3" t="s" s="48">
         <v>18</v>
       </c>
-      <c r="H3" t="s" s="41">
+      <c r="I3" t="s" s="49">
         <v>19</v>
       </c>
-      <c r="I3" t="n" s="42">
+      <c r="J3" t="n" s="50">
         <v>22.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="43">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s" s="44">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s" s="45">
+      <c r="A4" t="n" s="51">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s" s="46">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s" s="52">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="47">
+      <c r="F4" t="s" s="53">
         <v>9</v>
       </c>
-      <c r="F4" t="n" s="48">
+      <c r="G4" t="n" s="54">
         <v>13.0</v>
       </c>
-      <c r="G4" t="s" s="49">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s" s="50">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s" s="51">
-        <v>30</v>
+      <c r="H4" t="s" s="55">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="56">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s" s="57">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="52">
+      <c r="A5" t="n" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n">
         <v>4.0</v>
       </c>
-      <c r="B5" t="s" s="53">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s" s="54">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="59">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="60">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="61">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s" s="62">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s" s="63">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n" s="64">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="65">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s" s="55">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s" s="56">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s" s="57">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s" s="58">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s" s="59">
-        <v>21</v>
-      </c>
-      <c r="I5" t="n" s="60">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="61">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s" s="62">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s" s="63">
+      <c r="E6" t="s" s="66">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="67">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n" s="68">
+        <v>15.0</v>
+      </c>
+      <c r="H6" t="s" s="69">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s" s="70">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s" s="71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="72">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s" s="64">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s" s="65">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n" s="66">
-        <v>15.0</v>
-      </c>
-      <c r="G6" t="s" s="67">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s" s="68">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s" s="69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="70">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s" s="71">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s" s="72">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s" s="73">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s" s="74">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s" s="75">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s" s="76">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s" s="73">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="74">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s" s="75">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="76">
         <v>22</v>
       </c>
-      <c r="H7" t="s" s="77">
+      <c r="I7" t="s" s="77">
         <v>23</v>
       </c>
-      <c r="I7" t="n" s="78">
+      <c r="J7" t="n" s="78">
         <v>26.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="n" s="79">
+        <v>1.0</v>
+      </c>
+      <c r="B8" t="n">
         <v>8.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="n" s="79">
+      <c r="G8" t="n" s="80">
         <v>15.0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="I8" t="n" s="80">
+      <c r="J8" t="n" s="81">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I8"/>
+  <autoFilter ref="A1:J8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1268,21 +1303,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>25</v>
@@ -1299,50 +1335,59 @@
       <c r="H2" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="E3" t="n" s="2">
+      <c r="F3" t="n" s="2">
         <v>11.0</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H3" t="n" s="2">
+      <c r="I3" t="n" s="2">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="E4" t="n" s="2">
+      <c r="F4" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="G4" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="H4" t="n" s="2">
+      <c r="I4" t="n" s="2">
         <v>22.0</v>
       </c>
     </row>
@@ -1350,142 +1395,160 @@
       <c r="B5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E5" t="n" s="2">
+      <c r="F5" t="n" s="2">
         <v>13.0</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="G5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="D6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="H6" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H6" t="n" s="2">
+      <c r="I6" t="n" s="2">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E7" t="n" s="2">
+      <c r="F7" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="F7" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="D8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="H8" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="H8" t="n" s="2">
+      <c r="I8" t="n" s="2">
         <v>26.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
         <v>7.0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>77.0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="n">
+      <c r="B10" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
         <v>8.0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="n" s="2">
+      <c r="F10" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="n" s="2">
+      <c r="I10" t="n" s="2">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H10"/>
+  <autoFilter ref="B2:I10"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1498,21 +1561,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>25</v>
@@ -1529,50 +1593,59 @@
       <c r="H2" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>11.0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -1580,96 +1653,108 @@
       <c r="B5" t="n">
         <v>3.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>13.0</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15.0</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>7.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>77.0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>8.0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>15.0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H8"/>
+  <autoFilter ref="B2:I8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1682,21 +1767,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>25</v>
@@ -1713,147 +1799,168 @@
       <c r="H2" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>11.0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C5" t="n">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>6.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>7.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>77.0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>8.0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>15.0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H8"/>
+  <autoFilter ref="B2:I8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1866,21 +1973,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>25</v>
@@ -1897,105 +2005,120 @@
       <c r="H2" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>11.0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>12.0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n">
         <v>7.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>77.0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>8.0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15.0</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>88.0</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C20" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D20" t="s" s="1">
         <v>25</v>
@@ -2004,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s" s="1">
         <v>25</v>
@@ -2012,147 +2135,168 @@
       <c r="H20" t="s" s="1">
         <v>26</v>
       </c>
+      <c r="I20" t="s" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>11.0</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>5</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="n">
         <v>2.0</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>12.0</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>7</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C23" t="s">
+        <v>0.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>13.0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>8</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C24" t="n">
         <v>5.0</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>15.0</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>15.0</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C25" t="n">
         <v>7.0</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>77.0</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>77.0</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C26" t="n">
         <v>8.0</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>15.0</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>15.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B20:H26"/>
+  <autoFilter ref="B20:I26"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -2165,81 +2309,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
-      </c>
       <c r="D2" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>29</v>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>11.0</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>12.0</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22.0</v>
       </c>
     </row>
@@ -2247,142 +2401,160 @@
       <c r="B5" t="n">
         <v>3.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="n">
         <v>13.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>30</v>
+      <c r="I7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="n">
         <v>26.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
         <v>7.0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="n">
-        <v>77.0</v>
+      <c r="G9" t="s">
+        <v>13</v>
       </c>
       <c r="H9" t="n">
         <v>77.0</v>
       </c>
+      <c r="I9" t="n">
+        <v>77.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="n">
         <v>8.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H10"/>
+  <autoFilter ref="B2:I10"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -2395,21 +2567,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>25</v>
@@ -2426,50 +2599,59 @@
       <c r="H2" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="E3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="E3" t="n" s="2">
+      <c r="F3" t="n" s="2">
         <v>11.0</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="G3" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="H3" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H3" t="n" s="2">
+      <c r="I3" t="n" s="2">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="2">
+      <c r="E4" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="E4" t="n" s="2">
+      <c r="F4" t="n" s="2">
         <v>12.0</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="G4" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="H4" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="H4" t="n" s="2">
+      <c r="I4" t="n" s="2">
         <v>22.0</v>
       </c>
     </row>
@@ -2477,119 +2659,134 @@
       <c r="B5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="E5" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E5" t="n" s="2">
+      <c r="F5" t="n" s="2">
         <v>13.0</v>
       </c>
-      <c r="F5" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="G5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.0</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="D6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="G6" t="s" s="2">
+      <c r="H6" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H6" t="n" s="2">
+      <c r="I6" t="n" s="2">
         <v>24.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>5.0</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="E7" t="n" s="2">
+      <c r="F7" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="F7" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="G7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>6.0</v>
       </c>
-      <c r="C8" t="s" s="2">
-        <v>30</v>
-      </c>
       <c r="D8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="G8" t="s" s="2">
+      <c r="H8" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="H8" t="n" s="2">
+      <c r="I8" t="n" s="2">
         <v>26.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="n">
+      <c r="B9" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="C9" t="n">
         <v>8.0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="n" s="2">
+      <c r="F9" t="n" s="2">
         <v>15.0</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="n" s="2">
+      <c r="I9" t="n" s="2">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H9"/>
+  <autoFilter ref="B2:I9"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -2602,21 +2799,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="18.390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="26.10546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.59765625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.10546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="25.59765625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2">
       <c r="B2" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s" s="1">
         <v>0</v>
-      </c>
-      <c r="C2" t="s" s="1">
-        <v>24</v>
       </c>
       <c r="D2" t="s" s="1">
         <v>25</v>
@@ -2633,147 +2831,168 @@
       <c r="H2" t="s" s="1">
         <v>29</v>
       </c>
+      <c r="I2" t="s" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="D3" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="E3" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="E3" t="n" s="5">
+      <c r="F3" t="n" s="6">
         <v>11.0</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="G3" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="H3" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="H3" t="n" s="8">
+      <c r="I3" t="n" s="9">
         <v>21.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
         <v>2.0</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="D4" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="10">
+      <c r="E4" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="E4" t="n" s="11">
+      <c r="F4" t="n" s="13">
         <v>12.0</v>
       </c>
-      <c r="F4" t="s" s="12">
+      <c r="G4" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="13">
+      <c r="H4" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="H4" t="n" s="14">
+      <c r="I4" t="n" s="16">
         <v>22.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="B5" t="n" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n">
         <v>8.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="n" s="15">
+      <c r="F5" t="n" s="18">
         <v>15.0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="n" s="16">
+      <c r="I5" t="n" s="19">
         <v>88.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="n">
+      <c r="B6" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C6" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6" t="s" s="17">
+      <c r="D6" t="s" s="21">
         <v>4</v>
       </c>
-      <c r="D6" t="s" s="18">
+      <c r="E6" t="s" s="22">
         <v>5</v>
       </c>
-      <c r="E6" t="n" s="19">
+      <c r="F6" t="n" s="23">
         <v>11.0</v>
       </c>
-      <c r="F6" t="s" s="20">
+      <c r="G6" t="s" s="24">
         <v>16</v>
       </c>
-      <c r="G6" t="s" s="21">
+      <c r="H6" t="s" s="25">
         <v>17</v>
       </c>
-      <c r="H6" t="n" s="22">
+      <c r="I6" t="n" s="26">
         <v>21.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="n">
+      <c r="B7" t="n" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n">
         <v>2.0</v>
       </c>
-      <c r="C7" t="s" s="23">
+      <c r="D7" t="s" s="28">
         <v>6</v>
       </c>
-      <c r="D7" t="s" s="24">
+      <c r="E7" t="s" s="29">
         <v>7</v>
       </c>
-      <c r="E7" t="n" s="25">
+      <c r="F7" t="n" s="30">
         <v>12.0</v>
       </c>
-      <c r="F7" t="s" s="26">
+      <c r="G7" t="s" s="31">
         <v>18</v>
       </c>
-      <c r="G7" t="s" s="27">
+      <c r="H7" t="s" s="32">
         <v>19</v>
       </c>
-      <c r="H7" t="n" s="28">
+      <c r="I7" t="n" s="33">
         <v>22.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="n">
+      <c r="B8" t="n" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>8.0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="n" s="29">
+      <c r="F8" t="n" s="35">
         <v>15.0</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="n" s="30">
+      <c r="I8" t="n" s="36">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H8"/>
+  <autoFilter ref="B2:I8"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/tests/data/desired/resultreport.xlsx
+++ b/tests/data/desired/resultreport.xlsx
@@ -151,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="82">
+  <fonts count="94">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -272,6 +272,78 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color rgb="20D020"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color rgb="2020D0"/>
       <u val="none"/>
     </font>
     <font>
@@ -690,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
@@ -773,6 +845,18 @@
     <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
     <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="82" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="84" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="85" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -904,7 +988,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.2578125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="11.1484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
@@ -1015,132 +1099,132 @@
       <c r="A4" t="n" s="51">
         <v>3.0</v>
       </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="n" s="52">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="s" s="53">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="54">
         <v>35</v>
       </c>
-      <c r="E4" t="s" s="52">
+      <c r="E4" t="s" s="55">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="53">
+      <c r="F4" t="s" s="56">
         <v>9</v>
       </c>
-      <c r="G4" t="n" s="54">
+      <c r="G4" t="n" s="57">
         <v>13.0</v>
       </c>
-      <c r="H4" t="s" s="55">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s" s="56">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s" s="57">
+      <c r="H4" t="s" s="58">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s" s="59">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s" s="60">
         <v>31</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" t="n" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="n" s="62">
         <v>4.0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="63">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="64">
         <v>36</v>
       </c>
-      <c r="E5" t="s" s="59">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="60">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s" s="61">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s" s="62">
+      <c r="E5" t="s" s="65">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s" s="66">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="67">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s" s="68">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="63">
+      <c r="I5" t="s" s="69">
         <v>21</v>
       </c>
-      <c r="J5" t="n" s="64">
+      <c r="J5" t="n" s="70">
         <v>24.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" t="n" s="71">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n" s="72">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="73">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="74">
         <v>35</v>
       </c>
-      <c r="E6" t="s" s="66">
+      <c r="E6" t="s" s="75">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="67">
+      <c r="F6" t="s" s="76">
         <v>11</v>
       </c>
-      <c r="G6" t="n" s="68">
+      <c r="G6" t="n" s="77">
         <v>15.0</v>
       </c>
-      <c r="H6" t="s" s="69">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s" s="70">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s" s="71">
+      <c r="H6" t="s" s="78">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s" s="79">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s" s="80">
         <v>31</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="72">
-        <v>3.0</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" t="n" s="81">
+        <v>3.0</v>
+      </c>
+      <c r="B7" t="n" s="82">
         <v>6.0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="84">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="73">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s" s="74">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s" s="75">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s" s="76">
+      <c r="E7" t="s" s="85">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="86">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s" s="87">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s" s="88">
         <v>22</v>
       </c>
-      <c r="I7" t="s" s="77">
+      <c r="I7" t="s" s="89">
         <v>23</v>
       </c>
-      <c r="J7" t="n" s="78">
+      <c r="J7" t="n" s="90">
         <v>26.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="79">
+      <c r="A8" t="n" s="91">
         <v>1.0</v>
       </c>
       <c r="B8" t="n">
@@ -1158,7 +1242,7 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="n" s="80">
+      <c r="G8" t="n" s="92">
         <v>15.0</v>
       </c>
       <c r="H8" t="s">
@@ -1167,7 +1251,7 @@
       <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="J8" t="n" s="81">
+      <c r="J8" t="n" s="93">
         <v>88.0</v>
       </c>
     </row>
@@ -1304,7 +1388,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
@@ -1395,7 +1479,7 @@
       <c r="B5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="D5" t="s" s="2">
@@ -1421,7 +1505,7 @@
       <c r="B6" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="D6" t="s" s="2">
@@ -1447,7 +1531,7 @@
       <c r="B7" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="D7" t="s" s="2">
@@ -1473,7 +1557,7 @@
       <c r="B8" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="D8" t="s" s="2">
@@ -1562,7 +1646,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
@@ -1768,7 +1852,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
@@ -1974,7 +2058,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
@@ -2310,7 +2394,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="25.59765625" customWidth="true" bestFit="true"/>
@@ -2568,7 +2652,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
@@ -2659,7 +2743,7 @@
       <c r="B5" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="D5" t="s" s="2">
@@ -2685,7 +2769,7 @@
       <c r="B6" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="D6" t="s" s="2">
@@ -2711,7 +2795,7 @@
       <c r="B7" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="D7" t="s" s="2">
@@ -2737,7 +2821,7 @@
       <c r="B8" t="n" s="2">
         <v>3.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="D8" t="s" s="2">
@@ -2800,7 +2884,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="2" max="2" width="14.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.01171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="26.10546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.59765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.390625" customWidth="true" bestFit="true"/>
